--- a/public/assets/excel/center_example.xlsx
+++ b/public/assets/excel/center_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>مدير الفرع</t>
   </si>
@@ -26,33 +26,6 @@
   </si>
   <si>
     <t>العنوان</t>
-  </si>
-  <si>
-    <t>وقت الفتره الاولي</t>
-  </si>
-  <si>
-    <t>وقت الفتره الثانيه</t>
-  </si>
-  <si>
-    <t>وقت الفتره الثالثه</t>
-  </si>
-  <si>
-    <t>وقت الفتره الرابعه</t>
-  </si>
-  <si>
-    <t>عدد مراقبين الفتره الاولي</t>
-  </si>
-  <si>
-    <t>عدد مراقيبن الفتره الثانيه</t>
-  </si>
-  <si>
-    <t>عدد مراقبين الفتره الثالثه</t>
-  </si>
-  <si>
-    <t>عدد مراقبين الفتره الرابعه</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>سليمان</t>
@@ -66,19 +39,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -120,37 +87,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,100 +415,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="3">
+        <v>8556265</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>201066018340</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>20</v>
-      </c>
-      <c r="K2" s="7">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
